--- a/validset/validset.xlsx
+++ b/validset/validset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>text</t>
   </si>
@@ -44,6 +44,39 @@
   </si>
   <si>
     <t>multytrain</t>
+  </si>
+  <si>
+    <t>холодно</t>
+  </si>
+  <si>
+    <t>дороу</t>
+  </si>
+  <si>
+    <t>сделать</t>
+  </si>
+  <si>
+    <t>сказать</t>
+  </si>
+  <si>
+    <t>распознавать</t>
+  </si>
+  <si>
+    <t>хай</t>
+  </si>
+  <si>
+    <t>узнавать</t>
+  </si>
+  <si>
+    <t>except</t>
+  </si>
+  <si>
+    <t>погода норма</t>
+  </si>
+  <si>
+    <t>стоять</t>
+  </si>
+  <si>
+    <t>садиться</t>
   </si>
 </sst>
 </file>
@@ -401,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,6 +528,246 @@
         <v>6</v>
       </c>
     </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/validset/validset.xlsx
+++ b/validset/validset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
   <si>
     <t>text</t>
   </si>
@@ -77,6 +77,42 @@
   </si>
   <si>
     <t>садиться</t>
+  </si>
+  <si>
+    <t>мис распознавать</t>
+  </si>
+  <si>
+    <t>шо</t>
+  </si>
+  <si>
+    <t>ясно понятно</t>
+  </si>
+  <si>
+    <t>манда</t>
+  </si>
+  <si>
+    <t>думать поставлять защита токсичный высказывание</t>
+  </si>
+  <si>
+    <t>делать</t>
+  </si>
+  <si>
+    <t>простой</t>
+  </si>
+  <si>
+    <t>мочь парсить весь чат просто молча отвечать писать misa generator textes bot misa   рандомный текст</t>
+  </si>
+  <si>
+    <t>чат к тело пускать молчать</t>
+  </si>
+  <si>
+    <t>сколько инф</t>
+  </si>
+  <si>
+    <t>инф</t>
+  </si>
+  <si>
+    <t>comandclean</t>
   </si>
 </sst>
 </file>
@@ -434,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,6 +804,166 @@
         <v>20</v>
       </c>
     </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/validset/validset.xlsx
+++ b/validset/validset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
   <si>
     <t>text</t>
   </si>
@@ -113,6 +113,75 @@
   </si>
   <si>
     <t>comandclean</t>
+  </si>
+  <si>
+    <t>оно</t>
+  </si>
+  <si>
+    <t>распознавать предмет фотка</t>
+  </si>
+  <si>
+    <t>мис распознавать предмет фотка</t>
+  </si>
+  <si>
+    <t>фпыафпфыпф</t>
+  </si>
+  <si>
+    <t>мис привет</t>
+  </si>
+  <si>
+    <t>привет ебаный бот</t>
+  </si>
+  <si>
+    <t>васян нейрон обычный ифа</t>
+  </si>
+  <si>
+    <t>заменять нейрон нужно смысл видеть</t>
+  </si>
+  <si>
+    <t>просто индусский стиль код писать</t>
+  </si>
+  <si>
+    <t>блять написать парсер чат отдельный бот</t>
+  </si>
+  <si>
+    <t>someboolean true</t>
+  </si>
+  <si>
+    <t>напарсить скармливать бот обучаться кукель комнатный</t>
+  </si>
+  <si>
+    <t>пойти вообще дис заебывать</t>
+  </si>
+  <si>
+    <t>парсер работать</t>
+  </si>
+  <si>
+    <t>куклень</t>
+  </si>
+  <si>
+    <t>чо итог сделать хуйня чат</t>
+  </si>
+  <si>
+    <t>мис чо итог сделать хуйня чат</t>
+  </si>
+  <si>
+    <t>мис сказать</t>
+  </si>
+  <si>
+    <t>мис узнавать</t>
+  </si>
+  <si>
+    <t>мис спрашивать</t>
+  </si>
+  <si>
+    <t>мис дело</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>мис погода</t>
   </si>
 </sst>
 </file>
@@ -470,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,6 +1033,206 @@
         <v>21</v>
       </c>
     </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/validset/validset.xlsx
+++ b/validset/validset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
   <si>
     <t>text</t>
   </si>
@@ -539,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,6 +1233,16 @@
         <v>53</v>
       </c>
     </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/validset/validset.xlsx
+++ b/validset/validset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
   <si>
     <t>text</t>
   </si>
@@ -539,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B139"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,6 +1243,26 @@
         <v>53</v>
       </c>
     </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
